--- a/data/output/FV2504_FV2410/UTILMD/55002.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13395" uniqueCount="1242">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13416" uniqueCount="1242">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -3998,6 +3998,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U883" totalsRowShown="0">
+  <autoFilter ref="A1:U883"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4287,7 +4317,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U883"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -39447,5 +39480,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55002.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15964" uniqueCount="2104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15940" uniqueCount="2104">
   <si>
     <t>#</t>
   </si>
@@ -12295,44 +12295,42 @@
       </c>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="2" t="s">
         <v>1338</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5" t="s">
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="K109" s="5"/>
-      <c r="L109" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M109" s="5" t="s">
+      <c r="K109" s="2"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N109" s="5" t="s">
+      <c r="N109" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-      <c r="U109" s="5" t="s">
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="V109" s="5"/>
+      <c r="V109" s="2"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="5" t="s">
@@ -12499,44 +12497,42 @@
       <c r="V112" s="5"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5" t="s">
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M113" s="5" t="s">
+      <c r="K113" s="2"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N113" s="5" t="s">
+      <c r="N113" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5" t="s">
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="V113" s="5"/>
+      <c r="V113" s="2"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
@@ -14993,46 +14989,44 @@
       </c>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5" t="s">
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="K172" s="5" t="s">
+      <c r="K172" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="L172" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M172" s="5" t="s">
+      <c r="L172" s="4"/>
+      <c r="M172" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N172" s="5" t="s">
+      <c r="N172" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O172" s="5"/>
-      <c r="P172" s="5"/>
-      <c r="Q172" s="5"/>
-      <c r="R172" s="5"/>
-      <c r="S172" s="5"/>
-      <c r="T172" s="5"/>
-      <c r="U172" s="5" t="s">
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
+      <c r="U172" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="V172" s="5" t="s">
+      <c r="V172" s="2" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -15515,44 +15509,42 @@
       <c r="V182" s="5"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="2" t="s">
         <v>1409</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5" t="s">
+      <c r="C183" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M183" s="5" t="s">
+      <c r="K183" s="2"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N183" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O183" s="5"/>
-      <c r="P183" s="5"/>
-      <c r="Q183" s="5"/>
-      <c r="R183" s="5"/>
-      <c r="S183" s="5"/>
-      <c r="T183" s="5"/>
-      <c r="U183" s="5" t="s">
+      <c r="N183" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="V183" s="5"/>
+      <c r="V183" s="2"/>
     </row>
     <row r="184" spans="1:22">
       <c r="A184" s="5" t="s">
@@ -15914,9 +15906,7 @@
         <v>943</v>
       </c>
       <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>1191</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>60</v>
       </c>
@@ -15970,9 +15960,7 @@
         <v>943</v>
       </c>
       <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>1191</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>60</v>
       </c>
@@ -30949,46 +30937,44 @@
       <c r="V552" s="5"/>
     </row>
     <row r="553" spans="1:22">
-      <c r="A553" s="5" t="s">
+      <c r="A553" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="B553" s="5" t="s">
+      <c r="B553" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C553" s="5" t="s">
+      <c r="C553" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D553" s="5"/>
-      <c r="E553" s="5"/>
-      <c r="F553" s="5"/>
-      <c r="G553" s="5"/>
-      <c r="H553" s="5"/>
-      <c r="I553" s="5"/>
-      <c r="J553" s="5" t="s">
+      <c r="D553" s="2"/>
+      <c r="E553" s="2"/>
+      <c r="F553" s="2"/>
+      <c r="G553" s="2"/>
+      <c r="H553" s="2"/>
+      <c r="I553" s="2"/>
+      <c r="J553" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="K553" s="5" t="s">
+      <c r="K553" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="L553" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M553" s="5" t="s">
+      <c r="L553" s="4"/>
+      <c r="M553" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N553" s="5" t="s">
+      <c r="N553" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O553" s="5"/>
-      <c r="P553" s="5"/>
-      <c r="Q553" s="5"/>
-      <c r="R553" s="5"/>
-      <c r="S553" s="5"/>
-      <c r="T553" s="5"/>
-      <c r="U553" s="5" t="s">
+      <c r="O553" s="2"/>
+      <c r="P553" s="2"/>
+      <c r="Q553" s="2"/>
+      <c r="R553" s="2"/>
+      <c r="S553" s="2"/>
+      <c r="T553" s="2"/>
+      <c r="U553" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="V553" s="5" t="s">
+      <c r="V553" s="2" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -31553,44 +31539,42 @@
       <c r="V565" s="5"/>
     </row>
     <row r="566" spans="1:22">
-      <c r="A566" s="5" t="s">
+      <c r="A566" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="B566" s="5" t="s">
+      <c r="B566" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C566" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D566" s="5"/>
-      <c r="E566" s="5"/>
-      <c r="F566" s="5"/>
-      <c r="G566" s="5"/>
-      <c r="H566" s="5"/>
-      <c r="I566" s="5"/>
-      <c r="J566" s="5" t="s">
+      <c r="C566" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D566" s="2"/>
+      <c r="E566" s="2"/>
+      <c r="F566" s="2"/>
+      <c r="G566" s="2"/>
+      <c r="H566" s="2"/>
+      <c r="I566" s="2"/>
+      <c r="J566" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="K566" s="5"/>
-      <c r="L566" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M566" s="5" t="s">
+      <c r="K566" s="2"/>
+      <c r="L566" s="4"/>
+      <c r="M566" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N566" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O566" s="5"/>
-      <c r="P566" s="5"/>
-      <c r="Q566" s="5"/>
-      <c r="R566" s="5"/>
-      <c r="S566" s="5"/>
-      <c r="T566" s="5"/>
-      <c r="U566" s="5" t="s">
+      <c r="N566" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O566" s="2"/>
+      <c r="P566" s="2"/>
+      <c r="Q566" s="2"/>
+      <c r="R566" s="2"/>
+      <c r="S566" s="2"/>
+      <c r="T566" s="2"/>
+      <c r="U566" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="V566" s="5"/>
+      <c r="V566" s="2"/>
     </row>
     <row r="567" spans="1:22">
       <c r="A567" s="5" t="s">
@@ -31952,9 +31936,7 @@
         <v>943</v>
       </c>
       <c r="K573" s="5"/>
-      <c r="L573" s="7" t="s">
-        <v>1191</v>
-      </c>
+      <c r="L573" s="4"/>
       <c r="M573" s="5" t="s">
         <v>60</v>
       </c>
@@ -32008,9 +31990,7 @@
         <v>943</v>
       </c>
       <c r="K574" s="5"/>
-      <c r="L574" s="7" t="s">
-        <v>1191</v>
-      </c>
+      <c r="L574" s="4"/>
       <c r="M574" s="5" t="s">
         <v>60</v>
       </c>
@@ -33047,46 +33027,44 @@
       <c r="V599" s="5"/>
     </row>
     <row r="600" spans="1:22">
-      <c r="A600" s="5" t="s">
+      <c r="A600" s="2" t="s">
         <v>1823</v>
       </c>
-      <c r="B600" s="5" t="s">
+      <c r="B600" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C600" s="5" t="s">
+      <c r="C600" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D600" s="5"/>
-      <c r="E600" s="5"/>
-      <c r="F600" s="5"/>
-      <c r="G600" s="5"/>
-      <c r="H600" s="5"/>
-      <c r="I600" s="5"/>
-      <c r="J600" s="5" t="s">
+      <c r="D600" s="2"/>
+      <c r="E600" s="2"/>
+      <c r="F600" s="2"/>
+      <c r="G600" s="2"/>
+      <c r="H600" s="2"/>
+      <c r="I600" s="2"/>
+      <c r="J600" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="K600" s="5" t="s">
+      <c r="K600" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="L600" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M600" s="5" t="s">
+      <c r="L600" s="4"/>
+      <c r="M600" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N600" s="5" t="s">
+      <c r="N600" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O600" s="5"/>
-      <c r="P600" s="5"/>
-      <c r="Q600" s="5"/>
-      <c r="R600" s="5"/>
-      <c r="S600" s="5"/>
-      <c r="T600" s="5"/>
-      <c r="U600" s="5" t="s">
+      <c r="O600" s="2"/>
+      <c r="P600" s="2"/>
+      <c r="Q600" s="2"/>
+      <c r="R600" s="2"/>
+      <c r="S600" s="2"/>
+      <c r="T600" s="2"/>
+      <c r="U600" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="V600" s="5" t="s">
+      <c r="V600" s="2" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -33493,44 +33471,42 @@
       <c r="V608" s="5"/>
     </row>
     <row r="609" spans="1:22">
-      <c r="A609" s="5" t="s">
+      <c r="A609" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="B609" s="5" t="s">
+      <c r="B609" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C609" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D609" s="5"/>
-      <c r="E609" s="5"/>
-      <c r="F609" s="5"/>
-      <c r="G609" s="5"/>
-      <c r="H609" s="5"/>
-      <c r="I609" s="5"/>
-      <c r="J609" s="5" t="s">
+      <c r="C609" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D609" s="2"/>
+      <c r="E609" s="2"/>
+      <c r="F609" s="2"/>
+      <c r="G609" s="2"/>
+      <c r="H609" s="2"/>
+      <c r="I609" s="2"/>
+      <c r="J609" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="K609" s="5"/>
-      <c r="L609" s="7" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M609" s="5" t="s">
+      <c r="K609" s="2"/>
+      <c r="L609" s="4"/>
+      <c r="M609" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N609" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O609" s="5"/>
-      <c r="P609" s="5"/>
-      <c r="Q609" s="5"/>
-      <c r="R609" s="5"/>
-      <c r="S609" s="5"/>
-      <c r="T609" s="5"/>
-      <c r="U609" s="5" t="s">
+      <c r="N609" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="O609" s="2"/>
+      <c r="P609" s="2"/>
+      <c r="Q609" s="2"/>
+      <c r="R609" s="2"/>
+      <c r="S609" s="2"/>
+      <c r="T609" s="2"/>
+      <c r="U609" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="V609" s="5"/>
+      <c r="V609" s="2"/>
     </row>
     <row r="610" spans="1:22">
       <c r="A610" s="5" t="s">
